--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -67,9 +67,6 @@
     <t>等级</t>
   </si>
   <si>
-    <t>容器类型</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>死亡掉落包</t>
   </si>
   <si>
-    <t>BigWaterTower</t>
-  </si>
-  <si>
     <t>大水井塔</t>
   </si>
   <si>
@@ -115,34 +109,19 @@
     <t>攻速B</t>
   </si>
   <si>
-    <t>WaterTower</t>
-  </si>
-  <si>
     <t>水井塔</t>
   </si>
   <si>
-    <t>DefTower</t>
-  </si>
-  <si>
     <t>植物防御塔</t>
   </si>
   <si>
     <t>植物肉盾塔</t>
   </si>
   <si>
-    <t>Camp</t>
-  </si>
-  <si>
     <t>兵营</t>
   </si>
   <si>
-    <t>SeedTable</t>
-  </si>
-  <si>
     <t>3选1种子箱</t>
-  </si>
-  <si>
-    <t>ElasticBoard</t>
   </si>
   <si>
     <t>人体弹板</t>
@@ -831,10 +810,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1168,28 +1147,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="3" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="9" max="18" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="20" max="21" width="12.0446428571429" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="23" max="23" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="8" max="17" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="19" max="20" width="12.0446428571429" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="22" max="22" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1199,37 +1177,37 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="8" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1239,37 +1217,37 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="7" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="8" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1257,7 @@
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1288,180 +1266,171 @@
       <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:19">
       <c r="B4" s="1">
         <v>3000</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20000245</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="H4" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1">
-        <v>20000245</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="L4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="P4" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="4">
+      <c r="R4" s="4">
         <v>5000</v>
       </c>
-      <c r="T4" s="3">
+      <c r="S4" s="3">
         <v>30000001</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:20">
       <c r="B5" s="1">
         <v>3001</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
         <v>20000244</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="P5" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="R5" s="4">
         <v>5000</v>
       </c>
+      <c r="S5" s="3">
+        <v>30010001</v>
+      </c>
       <c r="T5" s="3">
-        <v>30010001</v>
-      </c>
-      <c r="U5" s="3">
         <v>30010101</v>
       </c>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:22">
       <c r="B6" s="1">
         <v>3100</v>
       </c>
@@ -1469,63 +1438,60 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
         <v>60000203</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="L6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="P6" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="R6" s="4">
         <v>5000</v>
       </c>
-      <c r="T6" s="3">
+      <c r="S6" s="3">
         <v>31000001</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="1">
+      <c r="T6" s="3"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:22">
       <c r="B7" s="1">
         <v>3100</v>
       </c>
@@ -1533,61 +1499,58 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
         <v>60000203</v>
       </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="L7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="N7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="P7" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="R7" s="4">
         <v>5000</v>
       </c>
-      <c r="T7" s="3">
+      <c r="S7" s="3">
         <v>31000001</v>
       </c>
-      <c r="W7" s="1">
+      <c r="V7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:22">
       <c r="B8" s="1">
         <v>3100</v>
       </c>
@@ -1595,61 +1558,58 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
         <v>60000203</v>
       </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="L8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="R8" s="4">
         <v>5000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="S8" s="3">
         <v>31000001</v>
       </c>
-      <c r="W8" s="1">
+      <c r="V8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:22">
       <c r="B9" s="1">
         <v>3100</v>
       </c>
@@ -1657,61 +1617,58 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
         <v>60000203</v>
       </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="L9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="N9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="P9" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="R9" s="4">
         <v>5000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="S9" s="3">
         <v>31000001</v>
       </c>
-      <c r="W9" s="1">
+      <c r="V9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:22">
       <c r="B10" s="1">
         <v>3100</v>
       </c>
@@ -1719,341 +1676,338 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
         <v>60000203</v>
       </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="L10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="N10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="R10" s="4">
         <v>5000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="S10" s="3">
         <v>31000001</v>
       </c>
-      <c r="W10" s="1">
+      <c r="V10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:22">
       <c r="B11" s="1">
         <v>3101</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
         <v>60000070</v>
       </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="L11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L11" s="11" t="s">
+      <c r="N11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="P11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="4">
+      <c r="R11" s="4">
         <v>5000</v>
       </c>
-      <c r="W11" s="1">
+      <c r="V11" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:22">
       <c r="B12" s="1">
         <v>3101</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
         <v>60000070</v>
       </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="L12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L12" s="11" t="s">
+      <c r="N12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N12" s="11" t="s">
+      <c r="P12" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="4">
+      <c r="R12" s="4">
         <v>5000</v>
       </c>
-      <c r="W12" s="1">
+      <c r="V12" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:22">
       <c r="B13" s="1">
         <v>3101</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1">
         <v>60000070</v>
       </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="L13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L13" s="11" t="s">
+      <c r="N13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="P13" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="4">
+      <c r="R13" s="4">
         <v>5000</v>
       </c>
-      <c r="W13" s="1">
+      <c r="V13" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:22">
       <c r="B14" s="1">
         <v>3101</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1">
         <v>60000070</v>
       </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="L14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="N14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N14" s="11" t="s">
+      <c r="P14" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="4">
+      <c r="R14" s="4">
         <v>5000</v>
       </c>
-      <c r="W14" s="1">
+      <c r="V14" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:22">
       <c r="B15" s="1">
         <v>3101</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1">
         <v>60000070</v>
       </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="L15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="N15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N15" s="11" t="s">
+      <c r="P15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P15" s="11" t="s">
+      <c r="R15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="V15" s="1">
         <v>31</v>
       </c>
-      <c r="Q15" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="4">
-        <v>5000</v>
-      </c>
-      <c r="W15" s="1">
-        <v>31</v>
-      </c>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:22">
       <c r="B16" s="1">
         <v>3200</v>
       </c>
@@ -2061,61 +2015,58 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="1">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
         <v>60000200</v>
       </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="L16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="N16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N16" s="11" t="s">
+      <c r="P16" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="4">
+      <c r="R16" s="4">
         <v>5000</v>
       </c>
-      <c r="T16" s="3">
+      <c r="S16" s="3">
         <v>32000001</v>
       </c>
-      <c r="W16" s="1">
+      <c r="V16" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:22">
       <c r="B17" s="1">
         <v>3200</v>
       </c>
@@ -2123,61 +2074,58 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1">
         <v>60000200</v>
       </c>
-      <c r="G17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J17" s="11" t="s">
+      <c r="L17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="N17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="P17" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="4">
+      <c r="R17" s="4">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="S17" s="3">
         <v>32000001</v>
       </c>
-      <c r="W17" s="1">
+      <c r="V17" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:22">
       <c r="B18" s="1">
         <v>3200</v>
       </c>
@@ -2185,61 +2133,58 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1">
         <v>60000200</v>
       </c>
-      <c r="G18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J18" s="11" t="s">
+      <c r="L18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L18" s="11" t="s">
+      <c r="N18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="P18" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="4">
+      <c r="R18" s="4">
         <v>5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="S18" s="3">
         <v>32000001</v>
       </c>
-      <c r="W18" s="1">
+      <c r="V18" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:22">
       <c r="B19" s="1">
         <v>3200</v>
       </c>
@@ -2247,61 +2192,58 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1">
         <v>60000200</v>
       </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J19" s="11" t="s">
+      <c r="L19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L19" s="11" t="s">
+      <c r="N19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="P19" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="4">
+      <c r="R19" s="4">
         <v>5000</v>
       </c>
-      <c r="T19" s="3">
+      <c r="S19" s="3">
         <v>32000001</v>
       </c>
-      <c r="W19" s="1">
+      <c r="V19" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:22">
       <c r="B20" s="1">
         <v>3200</v>
       </c>
@@ -2309,61 +2251,58 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="1">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1">
         <v>60000200</v>
       </c>
-      <c r="G20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="L20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L20" s="11" t="s">
+      <c r="N20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N20" s="11" t="s">
+      <c r="P20" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="4">
+      <c r="R20" s="4">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="S20" s="3">
         <v>32000001</v>
       </c>
-      <c r="W20" s="1">
+      <c r="V20" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:19">
       <c r="B21" s="1">
         <v>3300</v>
       </c>
@@ -2371,58 +2310,55 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1">
         <v>20000255</v>
       </c>
-      <c r="G21" s="1" t="b">
+      <c r="F21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J21" s="11" t="s">
+      <c r="L21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L21" s="11" t="s">
+      <c r="N21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N21" s="11" t="s">
+      <c r="P21" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="4">
+      <c r="R21" s="4">
         <v>5000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="S21" s="3">
         <v>33000001</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:17">
       <c r="B22" s="1">
         <v>3400</v>
       </c>
@@ -2430,104 +2366,101 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="1">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1">
         <v>20000257</v>
       </c>
-      <c r="G22" s="1" t="b">
+      <c r="F22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:19">
       <c r="B23" s="1">
         <v>3900</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1">
         <v>60000201</v>
       </c>
-      <c r="G23" s="1" t="b">
+      <c r="F23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J23" s="11" t="s">
+      <c r="L23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L23" s="11" t="s">
+      <c r="N23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N23" s="11" t="s">
+      <c r="P23" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>60000</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="4">
+      <c r="R23" s="4">
         <v>5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="S23" s="3">
         <v>39000001</v>
       </c>
     </row>
-    <row r="24" spans="8:18">
-      <c r="H24" s="9"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="11"/>
+    <row r="24" spans="7:17">
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="H2:S2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>array,int#ref=TbSkill</t>
   </si>
   <si>
-    <t>int#ref=TbRandomBag</t>
+    <t>int#ref=TbRandomBag?</t>
   </si>
   <si>
     <t>##</t>
@@ -784,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,18 +808,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1187,22 +1175,22 @@
       <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="12"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="9"/>
       <c r="S1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="12"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="9"/>
       <c r="V1" s="8" t="s">
         <v>7</v>
       </c>
@@ -1227,22 +1215,22 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="12"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="12"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="9"/>
       <c r="V2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1287,7 @@
       <c r="Q3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -1308,7 +1296,7 @@
       <c r="T3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="V3" s="8" t="s">
@@ -1322,7 +1310,7 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1">
@@ -1331,37 +1319,37 @@
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="3">
         <v>200000</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="3">
         <v>200000</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="3">
         <v>10000</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="3">
         <v>10000</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="3">
         <v>60000</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="4">
@@ -1378,7 +1366,7 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="1">
@@ -1387,37 +1375,37 @@
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="3">
         <v>200000</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="3">
         <v>200000</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="3">
         <v>10000</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="3">
         <v>10000</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="3">
         <v>60000</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="4">
@@ -1446,37 +1434,37 @@
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="3">
         <v>200000</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="3">
         <v>200000</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="3">
         <v>10000</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="3">
         <v>10000</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P6" s="3">
         <v>60000</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="4">
@@ -1485,8 +1473,6 @@
       <c r="S6" s="3">
         <v>31000001</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="4"/>
       <c r="V6" s="1">
         <v>2</v>
       </c>
@@ -1507,37 +1493,37 @@
       <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="3">
         <v>200000</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="3">
         <v>200000</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="3">
         <v>10000</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="3">
         <v>10000</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="3">
         <v>60000</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="4">
@@ -1566,37 +1552,37 @@
       <c r="F8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3">
         <v>200000</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="3">
         <v>200000</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="3">
         <v>10000</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N8" s="3">
         <v>10000</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P8" s="3">
         <v>60000</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="4">
@@ -1625,37 +1611,37 @@
       <c r="F9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="3">
         <v>200000</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="3">
         <v>200000</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="3">
         <v>10000</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="3">
         <v>60000</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="4">
@@ -1684,37 +1670,37 @@
       <c r="F10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="3">
         <v>200000</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="3">
         <v>200000</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="3">
         <v>10000</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N10" s="3">
         <v>10000</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P10" s="3">
         <v>60000</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R10" s="4">
@@ -1743,37 +1729,37 @@
       <c r="F11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3">
         <v>200000</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="3">
         <v>200000</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L11" s="3">
         <v>10000</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="3">
         <v>10000</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P11" s="3">
         <v>60000</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R11" s="4">
@@ -1799,37 +1785,37 @@
       <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="3">
         <v>200000</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="3">
         <v>200000</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N12" s="3">
         <v>10000</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P12" s="3">
         <v>60000</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R12" s="4">
@@ -1855,37 +1841,37 @@
       <c r="F13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="3">
         <v>200000</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="3">
         <v>200000</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="3">
         <v>10000</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N13" s="3">
         <v>10000</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P13" s="3">
         <v>60000</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R13" s="4">
@@ -1911,37 +1897,37 @@
       <c r="F14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="3">
         <v>200000</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="3">
         <v>200000</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P14" s="3">
         <v>60000</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R14" s="4">
@@ -1967,37 +1953,37 @@
       <c r="F15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="3">
         <v>200000</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="3">
         <v>200000</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="3">
         <v>60000</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R15" s="4">
@@ -2023,37 +2009,37 @@
       <c r="F16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="3">
         <v>200000</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="3">
         <v>200000</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="3">
         <v>10000</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N16" s="3">
         <v>10000</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P16" s="3">
         <v>60000</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R16" s="4">
@@ -2082,37 +2068,37 @@
       <c r="F17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="3">
         <v>200000</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="3">
         <v>200000</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P17" s="3">
         <v>60000</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="4">
@@ -2141,37 +2127,37 @@
       <c r="F18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3">
         <v>200000</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="3">
         <v>200000</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P18" s="3">
         <v>60000</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R18" s="4">
@@ -2200,37 +2186,37 @@
       <c r="F19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="3">
         <v>200000</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="3">
         <v>200000</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L19" s="3">
         <v>10000</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N19" s="3">
         <v>10000</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P19" s="3">
         <v>60000</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R19" s="4">
@@ -2259,37 +2245,37 @@
       <c r="F20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="3">
         <v>200000</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="3">
         <v>200000</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P20" s="3">
         <v>60000</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R20" s="4">
@@ -2318,37 +2304,37 @@
       <c r="F21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="3">
         <v>200000</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="3">
         <v>200000</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="3">
         <v>10000</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N21" s="3">
         <v>10000</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P21" s="3">
         <v>60000</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R21" s="4">
@@ -2358,7 +2344,7 @@
         <v>33000001</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:6">
       <c r="B22" s="1">
         <v>3400</v>
       </c>
@@ -2374,17 +2360,6 @@
       <c r="F22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="1">
@@ -2402,37 +2377,37 @@
       <c r="F23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="3">
         <v>200000</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="3">
         <v>200000</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L23" s="3">
         <v>10000</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N23" s="3">
         <v>10000</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P23" s="3">
         <v>60000</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="R23" s="4">
@@ -2441,19 +2416,6 @@
       <c r="S23" s="3">
         <v>39000001</v>
       </c>
-    </row>
-    <row r="24" spans="7:17">
-      <c r="G24" s="10"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -88,7 +88,7 @@
     <t>死亡掉落包</t>
   </si>
   <si>
-    <t>大水井塔</t>
+    <t>攻击塔</t>
   </si>
   <si>
     <t>生命值B</t>
@@ -109,25 +109,10 @@
     <t>攻速B</t>
   </si>
   <si>
-    <t>水井塔</t>
-  </si>
-  <si>
-    <t>植物防御塔</t>
-  </si>
-  <si>
-    <t>植物肉盾塔</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>3选1种子箱</t>
-  </si>
-  <si>
-    <t>人体弹板</t>
-  </si>
-  <si>
-    <t>中立的野怪点</t>
+    <t>防御塔</t>
+  </si>
+  <si>
+    <t>肉盾塔</t>
   </si>
 </sst>
 </file>
@@ -811,9 +796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1135,15 +1117,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="3" width="5.57142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.57142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.57142857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
@@ -1305,16 +1288,16 @@
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="1">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1">
-        <v>20000245</v>
+        <v>30010001</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -1361,16 +1344,16 @@
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="1">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="1">
-        <v>20000244</v>
+        <v>30020001</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -1420,7 +1403,7 @@
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="1">
-        <v>3100</v>
+        <v>3003</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1429,7 +1412,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="1">
-        <v>60000203</v>
+        <v>30030001</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -1475,946 +1458,6 @@
       </c>
       <c r="V6" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="1">
-        <v>3100</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1">
-        <v>60000203</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S7" s="3">
-        <v>31000001</v>
-      </c>
-      <c r="V7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="1">
-        <v>3100</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1">
-        <v>60000203</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>31000001</v>
-      </c>
-      <c r="V8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="1">
-        <v>3100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1">
-        <v>60000203</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>31000001</v>
-      </c>
-      <c r="V9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="1">
-        <v>3100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>60000203</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>31000001</v>
-      </c>
-      <c r="V10" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="1">
-        <v>3101</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="4">
-        <v>5000</v>
-      </c>
-      <c r="V11" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
-      <c r="B12" s="1">
-        <v>3101</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="4">
-        <v>5000</v>
-      </c>
-      <c r="V12" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22">
-      <c r="B13" s="1">
-        <v>3101</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="4">
-        <v>5000</v>
-      </c>
-      <c r="V13" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="1">
-        <v>3101</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="4">
-        <v>5000</v>
-      </c>
-      <c r="V14" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22">
-      <c r="B15" s="1">
-        <v>3101</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1">
-        <v>60000070</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5000</v>
-      </c>
-      <c r="V15" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22">
-      <c r="B16" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1">
-        <v>60000200</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S16" s="3">
-        <v>32000001</v>
-      </c>
-      <c r="V16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1">
-        <v>60000200</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>32000001</v>
-      </c>
-      <c r="V17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1">
-        <v>60000200</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>32000001</v>
-      </c>
-      <c r="V18" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1">
-        <v>60000200</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S19" s="3">
-        <v>32000001</v>
-      </c>
-      <c r="V19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1">
-        <v>60000200</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>32000001</v>
-      </c>
-      <c r="V20" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="1">
-        <v>3300</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1">
-        <v>20000255</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>33000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1">
-        <v>3400</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20000257</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23" s="1">
-        <v>3900</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="1">
-        <v>60000201</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>39000001</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>死亡掉落包</t>
   </si>
   <si>
-    <t>攻击塔</t>
+    <t>防御塔</t>
   </si>
   <si>
     <t>生命值B</t>
@@ -109,10 +109,10 @@
     <t>攻速B</t>
   </si>
   <si>
-    <t>防御塔</t>
-  </si>
-  <si>
-    <t>肉盾塔</t>
+    <t>召唤塔</t>
+  </si>
+  <si>
+    <t>增益塔</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1339,10 +1339,10 @@
         <v>5000</v>
       </c>
       <c r="S4" s="3">
-        <v>30000001</v>
+        <v>30010001</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:19">
       <c r="B5" s="1">
         <v>3002</v>
       </c>
@@ -1392,13 +1392,10 @@
         <v>30</v>
       </c>
       <c r="R5" s="4">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="S5" s="3">
-        <v>30010001</v>
-      </c>
-      <c r="T5" s="3">
-        <v>30010101</v>
+        <v>30020001</v>
       </c>
     </row>
     <row r="6" spans="2:22">
@@ -1454,7 +1451,7 @@
         <v>5000</v>
       </c>
       <c r="S6" s="3">
-        <v>31000001</v>
+        <v>30030001</v>
       </c>
       <c r="V6" s="1">
         <v>2</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>增益塔</t>
+  </si>
+  <si>
+    <t>资源塔</t>
   </si>
 </sst>
 </file>
@@ -1117,13 +1120,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.57142857142857" style="1" customWidth="1"/>
@@ -1457,6 +1460,62 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="1">
+        <v>3004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S7" s="3">
+        <v>30040001</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G1:R1"/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>int#ref=TbResource</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>死亡掉落包</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>防御塔</t>
@@ -772,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,6 +803,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,18 +1135,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.57142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.0714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.1160714285714" style="2" customWidth="1"/>
     <col min="8" max="17" width="10.1160714285714" style="3" customWidth="1"/>
@@ -1158,7 +1173,7 @@
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="7"/>
@@ -1171,13 +1186,13 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="9"/>
+      <c r="R1" s="11"/>
       <c r="S1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="7"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="8" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1193,13 +1208,13 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1211,264 +1226,233 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="9"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T2" s="7"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="8" t="s">
-        <v>13</v>
+      <c r="U2" s="11"/>
+      <c r="V2" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>21</v>
+      <c r="R3" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="U3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="1">
-        <v>3001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3">
-        <v>200000</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3">
-        <v>200000</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4">
-        <v>5000</v>
-      </c>
-      <c r="S4" s="3">
-        <v>30010001</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="1">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <v>200000</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3">
         <v>200000</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3">
         <v>10000</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N5" s="3">
         <v>10000</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P5" s="3">
         <v>60000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R5" s="4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="S5" s="3">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:19">
       <c r="B6" s="1">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
-        <v>30030001</v>
+        <v>30020001</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3">
         <v>200000</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J6" s="3">
         <v>200000</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3">
         <v>10000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N6" s="3">
         <v>10000</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P6" s="3">
         <v>60000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R6" s="4">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="3">
-        <v>30030001</v>
-      </c>
-      <c r="V6" s="1">
-        <v>2</v>
+        <v>30020001</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="1">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>30030001</v>
@@ -1477,42 +1461,98 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3">
         <v>200000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3">
         <v>200000</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L7" s="3">
         <v>10000</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N7" s="3">
         <v>10000</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P7" s="3">
         <v>60000</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="4">
+        <v>5000</v>
+      </c>
+      <c r="S7" s="3">
+        <v>30030001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="1">
+        <v>3004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="4">
+      <c r="L8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="4">
         <v>1000</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S8" s="3">
         <v>30040001</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1382,7 +1382,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="S5" s="3">
         <v>30010001</v>
@@ -1438,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="R6" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="S6" s="3">
         <v>30020001</v>
@@ -1494,7 +1494,7 @@
         <v>33</v>
       </c>
       <c r="R7" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="S7" s="3">
         <v>30030001</v>
@@ -1550,7 +1550,7 @@
         <v>33</v>
       </c>
       <c r="R8" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="S8" s="3">
         <v>30040001</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -28,6 +28,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>shape</t>
+  </si>
+  <si>
     <t>can_be_attack</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>int#ref=TbResource</t>
   </si>
   <si>
+    <t>(array#sep=,),int</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>模型</t>
   </si>
   <si>
+    <t>形状</t>
+  </si>
+  <si>
     <t>是否受攻击</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>防御塔</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>生命值B</t>
@@ -781,11 +793,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,7 +823,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,204 +1154,215 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.57142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="8" max="17" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="19" max="20" width="12.0446428571429" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="22" max="22" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.0714285714286" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="9" max="18" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="20" max="21" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="22" max="22" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="23" max="23" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="7" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="10" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:23">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" s="10" t="s">
+      <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="7"/>
+    <row r="4" spans="1:23">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:20">
       <c r="B5" s="1">
         <v>3001</v>
       </c>
@@ -1340,55 +1370,58 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>30010001</v>
       </c>
-      <c r="F5" s="1" t="b">
+      <c r="F5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4">
         <v>200000</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4">
         <v>200000</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4">
         <v>10000</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="4">
         <v>10000</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4">
         <v>60000</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="R5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="5">
         <v>2000</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="4">
         <v>30010001</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:20">
       <c r="B6" s="1">
         <v>3002</v>
       </c>
@@ -1396,55 +1429,58 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>30020001</v>
       </c>
-      <c r="F6" s="1" t="b">
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4">
         <v>200000</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="4">
         <v>200000</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4">
         <v>10000</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="4">
         <v>10000</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4">
         <v>60000</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="R6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="5">
         <v>500</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="4">
         <v>30020001</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:20">
       <c r="B7" s="1">
         <v>3003</v>
       </c>
@@ -1452,55 +1488,58 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>30030001</v>
       </c>
-      <c r="F7" s="1" t="b">
+      <c r="F7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4">
         <v>200000</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="4">
         <v>200000</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="4">
         <v>10000</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="4">
         <v>10000</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="P7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="4">
         <v>60000</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="4">
+      <c r="R7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="5">
         <v>2000</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="4">
         <v>30030001</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:20">
       <c r="B8" s="1">
         <v>3004</v>
       </c>
@@ -1508,60 +1547,69 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>30030001</v>
       </c>
-      <c r="F8" s="1" t="b">
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="4">
         <v>200000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="4">
         <v>200000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4">
         <v>10000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="4">
         <v>10000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="4">
         <v>60000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="4">
+      <c r="R8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="5">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="4">
         <v>30040001</v>
       </c>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="H2:S2"/>
+    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -52,7 +52,7 @@
     <t>int#ref=TbResource</t>
   </si>
   <si>
-    <t>(array#sep=,),int</t>
+    <t>(array#sep=,),bool</t>
   </si>
   <si>
     <t>bool</t>
@@ -793,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,9 +827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,7 +1154,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1209,12 +1206,12 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
-      <c r="S1" s="14"/>
+      <c r="S1" s="13"/>
       <c r="T1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="U1" s="8"/>
-      <c r="V1" s="14"/>
+      <c r="V1" s="13"/>
       <c r="W1" s="12" t="s">
         <v>8</v>
       </c>
@@ -1252,12 +1249,12 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="14"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="U2" s="8"/>
-      <c r="V2" s="14"/>
+      <c r="V2" s="13"/>
       <c r="W2" s="12" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1314,7 @@
       <c r="R3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="T3" s="8" t="s">
@@ -1326,7 +1323,7 @@
       <c r="U3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="W3" s="12" t="s">
@@ -1356,10 +1353,10 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="14"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="14"/>
+      <c r="V4" s="13"/>
       <c r="W4" s="8"/>
     </row>
     <row r="5" spans="2:20">
@@ -1375,7 +1372,7 @@
       <c r="E5" s="1">
         <v>30010001</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="1" t="b">
@@ -1434,7 +1431,7 @@
       <c r="E6" s="1">
         <v>30020001</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="1" t="b">
@@ -1493,7 +1490,7 @@
       <c r="E7" s="1">
         <v>30030001</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1" t="b">
@@ -1552,7 +1549,7 @@
       <c r="E8" s="1">
         <v>30030001</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="b">
@@ -1599,10 +1596,10 @@
       </c>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="13"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="6:6">
-      <c r="F10" s="13"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -40,6 +40,9 @@
     <t>skills</t>
   </si>
   <si>
+    <t>product_skill</t>
+  </si>
+  <si>
     <t>random_bag_id</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>array,int#ref=TbSkill</t>
   </si>
   <si>
+    <t>int#ref=TbSkill?</t>
+  </si>
+  <si>
     <t>int#ref=TbRandomBag?</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>技能</t>
+  </si>
+  <si>
+    <t>生产技能</t>
   </si>
   <si>
     <t>死亡掉落包</t>
@@ -793,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,6 +839,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1151,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1170,10 +1182,11 @@
     <col min="19" max="19" width="10.1160714285714" style="5" customWidth="1"/>
     <col min="20" max="21" width="12.0446428571429" style="4" customWidth="1"/>
     <col min="22" max="22" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="23" max="23" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.3571428571429" style="4" customWidth="1"/>
+    <col min="24" max="24" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1212,32 +1225,35 @@
       </c>
       <c r="U1" s="8"/>
       <c r="V1" s="13"/>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="X1" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1251,94 +1267,100 @@
       <c r="R2" s="8"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="12" t="s">
-        <v>16</v>
+      <c r="W2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="8"/>
@@ -1358,6 +1380,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="13"/>
       <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="1">
@@ -1367,49 +1390,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>30010001</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4">
         <v>200000</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5" s="4">
         <v>200000</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M5" s="4">
         <v>10000</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O5" s="4">
         <v>10000</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="4">
         <v>60000</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S5" s="5">
         <v>2000</v>
@@ -1426,49 +1449,49 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1">
         <v>30020001</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4">
         <v>200000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K6" s="4">
         <v>200000</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M6" s="4">
         <v>10000</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O6" s="4">
         <v>10000</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="4">
         <v>60000</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S6" s="5">
         <v>500</v>
@@ -1485,49 +1508,49 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
         <v>30030001</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4">
         <v>200000</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7" s="4">
         <v>200000</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M7" s="4">
         <v>10000</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O7" s="4">
         <v>10000</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="4">
         <v>60000</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S7" s="5">
         <v>2000</v>
@@ -1536,7 +1559,7 @@
         <v>30030001</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:23">
       <c r="B8" s="1">
         <v>3004</v>
       </c>
@@ -1544,55 +1567,58 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>30030001</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I8" s="4">
         <v>200000</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K8" s="4">
         <v>200000</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M8" s="4">
         <v>10000</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O8" s="4">
         <v>10000</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="4">
         <v>60000</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S8" s="5">
         <v>500</v>
       </c>
       <c r="T8" s="4">
         <v>30040001</v>
+      </c>
+      <c r="W8" s="4">
+        <v>30040101</v>
       </c>
     </row>
     <row r="9" spans="6:6">

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>等级</t>
   </si>
   <si>
     <t>备注</t>
@@ -802,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,9 +833,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1163,52 +1154,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.0714285714286" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="9" max="18" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="20" max="21" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="22" max="22" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="23" max="23" width="17.3571428571429" style="4" customWidth="1"/>
-    <col min="24" max="24" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.0714285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="8" max="17" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="19" max="20" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="22" max="22" width="17.3571428571429" style="4" customWidth="1"/>
+    <col min="23" max="23" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:23">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -1218,43 +1206,40 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="8" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="8"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1264,107 +1249,103 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="8" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="14" t="s">
+    <row r="4" spans="1:23">
+      <c r="A4" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1374,265 +1355,252 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:19">
       <c r="B5" s="1">
-        <v>3001</v>
-      </c>
-      <c r="C5" s="1">
+        <v>30011</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="4">
+        <v>200000</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4">
+        <v>200000</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="4">
+        <v>60000</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S5" s="4">
         <v>30010001</v>
       </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="1">
+        <v>30021</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30020001</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="b">
+      <c r="J6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="4">
+        <v>60000</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="5">
+        <v>500</v>
+      </c>
+      <c r="S6" s="4">
+        <v>30020001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="1">
+        <v>30031</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="4">
+        <v>60000</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="4">
+        <v>30030001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="1">
+        <v>30041</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4">
         <v>200000</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="N8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="P8" s="4">
+        <v>60000</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>60000</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="5">
-        <v>2000</v>
-      </c>
-      <c r="T5" s="4">
-        <v>30010001</v>
+      <c r="R8" s="5">
+        <v>500</v>
+      </c>
+      <c r="S8" s="4">
+        <v>30040001</v>
+      </c>
+      <c r="V8" s="4">
+        <v>30040101</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="1">
-        <v>3002</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30020001</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>60000</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="5">
-        <v>500</v>
-      </c>
-      <c r="T6" s="4">
-        <v>30020001</v>
-      </c>
+    <row r="9" spans="5:5">
+      <c r="E9" s="4"/>
     </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="1">
-        <v>3003</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="4">
-        <v>200000</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4">
-        <v>200000</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>60000</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="T7" s="4">
-        <v>30030001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23">
-      <c r="B8" s="1">
-        <v>3004</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4">
-        <v>200000</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="4">
-        <v>200000</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="5">
-        <v>500</v>
-      </c>
-      <c r="T8" s="4">
-        <v>30040001</v>
-      </c>
-      <c r="W8" s="4">
-        <v>30040101</v>
-      </c>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="4"/>
+    <row r="10" spans="5:5">
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="H2:S2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>速度B</t>
+  </si>
+  <si>
+    <t>攻击距离B</t>
   </si>
   <si>
     <t>攻速B</t>
@@ -1154,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1168,15 +1171,15 @@
     <col min="5" max="5" width="48.0714285714286" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="8" max="17" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="19" max="20" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="22" max="22" width="17.3571428571429" style="4" customWidth="1"/>
-    <col min="23" max="23" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="8" max="19" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="21" max="22" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="24" max="24" width="17.3571428571429" style="4" customWidth="1"/>
+    <col min="25" max="25" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1206,20 +1209,22 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="8" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1249,20 +1254,22 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1314,26 +1321,32 @@
       <c r="Q3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="S3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
@@ -1355,14 +1368,16 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="13"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:21">
       <c r="B5" s="1">
         <v>30011</v>
       </c>
@@ -1411,19 +1426,25 @@
       <c r="Q5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
+        <v>50000</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="5">
         <v>2000</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>30010001</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:21">
       <c r="B6" s="1">
         <v>30021</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>30020001</v>
@@ -1467,19 +1488,25 @@
       <c r="Q6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
+        <v>50000</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="5">
         <v>500</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <v>30020001</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:21">
       <c r="B7" s="1">
         <v>30031</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>30030001</v>
@@ -1523,19 +1550,25 @@
       <c r="Q7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
+        <v>50000</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="5">
         <v>2000</v>
       </c>
-      <c r="S7" s="4">
+      <c r="U7" s="4">
         <v>30030001</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:24">
       <c r="B8" s="1">
         <v>30041</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>30030001</v>
@@ -1579,13 +1612,19 @@
       <c r="Q8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
+        <v>50000</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="5">
         <v>500</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="4">
         <v>30040001</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <v>30040101</v>
       </c>
     </row>
@@ -1597,10 +1636,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="G1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="G2:T2"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>radius</t>
+  </si>
+  <si>
     <t>shape</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>模型</t>
   </si>
   <si>
+    <t>半径</t>
+  </si>
+  <si>
     <t>形状</t>
   </si>
   <si>
@@ -109,31 +115,37 @@
     <t>c</t>
   </si>
   <si>
+    <t>塔防大本营</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>生命值B</t>
+  </si>
+  <si>
+    <t>魔法值B</t>
+  </si>
+  <si>
+    <t>攻击力B</t>
+  </si>
+  <si>
+    <t>防御力B</t>
+  </si>
+  <si>
+    <t>速度B</t>
+  </si>
+  <si>
+    <t>攻击距离B</t>
+  </si>
+  <si>
+    <t>攻速B</t>
+  </si>
+  <si>
+    <t>兵防大本营</t>
+  </si>
+  <si>
     <t>防御塔</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>生命值B</t>
-  </si>
-  <si>
-    <t>魔法值B</t>
-  </si>
-  <si>
-    <t>攻击力B</t>
-  </si>
-  <si>
-    <t>防御力B</t>
-  </si>
-  <si>
-    <t>速度B</t>
-  </si>
-  <si>
-    <t>攻击距离B</t>
-  </si>
-  <si>
-    <t>攻速B</t>
   </si>
   <si>
     <t>召唤塔</t>
@@ -1157,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1168,18 +1180,19 @@
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.0714285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="8" max="19" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="21" max="22" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="23" max="23" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="24" max="24" width="17.3571428571429" style="4" customWidth="1"/>
-    <col min="25" max="25" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8928571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.0714285714286" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="9" max="20" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="22" max="23" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="24" max="24" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="25" max="25" width="17.3571428571429" style="4" customWidth="1"/>
+    <col min="26" max="26" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1190,16 +1203,18 @@
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -1211,40 +1226,43 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="11" t="s">
+      <c r="T1" s="8"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="W1" s="8"/>
+      <c r="X1" s="13"/>
       <c r="Y1" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="Z1" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1256,109 +1274,113 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="11" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="13"/>
       <c r="Y2" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="Z2" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="H3" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="I3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="U3" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="V3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1370,276 +1392,419 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="13"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="13"/>
       <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:22">
       <c r="B5" s="1">
-        <v>30011</v>
+        <v>30001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>30010001</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="b">
+      <c r="E5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4">
+        <v>500000</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4">
+        <v>500000</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="4">
+        <v>100000</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="V5" s="4">
+        <v>30000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1">
+        <v>30005</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4">
+        <v>500000</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4">
+        <v>500000</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5000</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="4">
+        <v>100000</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="5">
+        <v>50000</v>
+      </c>
+      <c r="V6" s="4">
+        <v>30000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="1">
+        <v>30011</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4">
         <v>200000</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4">
+        <v>200000</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>60000</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="4">
+        <v>50000</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="V7" s="4">
+        <v>30010001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="1">
+        <v>30021</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30020001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="4">
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4">
         <v>200000</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>60000</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="4">
+        <v>50000</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="5">
+        <v>500</v>
+      </c>
+      <c r="V8" s="4">
+        <v>30020001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="1">
+        <v>30031</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="4">
+      <c r="I9" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="4">
+        <v>200000</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="4">
         <v>10000</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>60000</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="4">
+        <v>50000</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="V9" s="4">
+        <v>30030001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="B10" s="1">
+        <v>30041</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="4">
+      <c r="K10" s="4">
+        <v>200000</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="4">
         <v>10000</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="N10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="4">
         <v>60000</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="R10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="4">
         <v>50000</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="5">
-        <v>2000</v>
-      </c>
-      <c r="U5" s="4">
-        <v>30010001</v>
+      <c r="T10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="5">
+        <v>500</v>
+      </c>
+      <c r="V10" s="4">
+        <v>30040001</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>30040101</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="1">
-        <v>30021</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1">
-        <v>30020001</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="4">
-        <v>60000</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="4">
-        <v>50000</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="5">
-        <v>500</v>
-      </c>
-      <c r="U6" s="4">
-        <v>30020001</v>
-      </c>
+    <row r="11" spans="6:6">
+      <c r="F11" s="4"/>
     </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="1">
-        <v>30031</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4">
-        <v>200000</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="4">
-        <v>200000</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="4">
-        <v>60000</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="5">
-        <v>2000</v>
-      </c>
-      <c r="U7" s="4">
-        <v>30030001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="1">
-        <v>30041</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="4">
-        <v>200000</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="4">
-        <v>200000</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="4">
-        <v>60000</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="4">
-        <v>50000</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="5">
-        <v>500</v>
-      </c>
-      <c r="U8" s="4">
-        <v>30040001</v>
-      </c>
-      <c r="X8" s="4">
-        <v>30040101</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="4"/>
+    <row r="12" spans="6:6">
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="G2:T2"/>
-    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="H1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stone</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Map = 1
+Block = 2,
+Building = 4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -28,6 +52,9 @@
     <t>radius</t>
   </si>
   <si>
+    <t>placed_layer</t>
+  </si>
+  <si>
     <t>shape</t>
   </si>
   <si>
@@ -88,7 +115,10 @@
     <t>半径</t>
   </si>
   <si>
-    <t>形状</t>
+    <t>放置目标层</t>
+  </si>
+  <si>
+    <t>放置形状</t>
   </si>
   <si>
     <t>是否受攻击</t>
@@ -118,34 +148,37 @@
     <t>塔防大本营</t>
   </si>
   <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,1,1,0,0,0,1,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>生命值B</t>
+  </si>
+  <si>
+    <t>魔法值B</t>
+  </si>
+  <si>
+    <t>攻击力B</t>
+  </si>
+  <si>
+    <t>防御力B</t>
+  </si>
+  <si>
+    <t>速度B</t>
+  </si>
+  <si>
+    <t>攻击距离B</t>
+  </si>
+  <si>
+    <t>攻速B</t>
+  </si>
+  <si>
+    <t>兵防大本营</t>
+  </si>
+  <si>
+    <t>防御塔</t>
+  </si>
+  <si>
     <t>0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>生命值B</t>
-  </si>
-  <si>
-    <t>魔法值B</t>
-  </si>
-  <si>
-    <t>攻击力B</t>
-  </si>
-  <si>
-    <t>防御力B</t>
-  </si>
-  <si>
-    <t>速度B</t>
-  </si>
-  <si>
-    <t>攻击距离B</t>
-  </si>
-  <si>
-    <t>攻速B</t>
-  </si>
-  <si>
-    <t>兵防大本营</t>
-  </si>
-  <si>
-    <t>防御塔</t>
   </si>
   <si>
     <t>召唤塔</t>
@@ -167,7 +200,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +371,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +731,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,16 +755,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -729,89 +773,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,13 +885,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1169,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1180,19 +1230,19 @@
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8928571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.0714285714286" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="9" max="20" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="21" max="21" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="22" max="23" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="24" max="24" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="25" max="25" width="17.3571428571429" style="4" customWidth="1"/>
-    <col min="26" max="26" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.8928571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.0714285714286" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="10" max="21" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="22" max="22" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="23" max="24" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="25" max="25" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="26" max="26" width="17.3571428571429" style="4" customWidth="1"/>
+    <col min="27" max="27" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1209,13 +1259,15 @@
       <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1227,43 +1279,46 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="11" t="s">
+      <c r="U1" s="8"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="X1" s="8"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="AA1" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -1275,113 +1330,117 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="11" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="AA2" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="I3" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="J3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="V3" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="W3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="X3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1393,149 +1452,156 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="14"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="14"/>
       <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:23">
       <c r="B5" s="1">
         <v>30001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>30010001</v>
+        <v>30001001</v>
       </c>
       <c r="E5" s="1">
         <v>10000</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="b">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4">
         <v>500000</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="4">
         <v>500000</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="M5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4">
         <v>5000</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="O5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="S5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="4">
         <v>100000</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="5">
         <v>50000</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>30000001</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:23">
       <c r="B6" s="1">
         <v>30005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
-        <v>30010001</v>
+        <v>30005001</v>
       </c>
       <c r="E6" s="1">
         <v>10000</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="b">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
         <v>500000</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="K6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4">
         <v>500000</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="M6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="4">
         <v>5000</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="O6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="S6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="4">
         <v>100000</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="5">
         <v>50000</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <v>30000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:23">
       <c r="B7" s="1">
         <v>30011</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>30010001</v>
@@ -1543,64 +1609,67 @@
       <c r="E7" s="1">
         <v>5000</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="b">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4">
         <v>200000</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="K7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="4">
         <v>200000</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="4">
         <v>10000</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="O7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="4">
         <v>60000</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="S7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="4">
         <v>50000</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="5">
         <v>2000</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <v>30010001</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:23">
       <c r="B8" s="1">
         <v>30021</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>30020001</v>
@@ -1608,64 +1677,67 @@
       <c r="E8" s="1">
         <v>5000</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="b">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4">
         <v>200000</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="K8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="4">
         <v>200000</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="4">
         <v>10000</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="O8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="4">
         <v>60000</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="S8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="4">
         <v>50000</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="5">
         <v>500</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>30020001</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:23">
       <c r="B9" s="1">
         <v>30031</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <v>30030001</v>
@@ -1673,64 +1745,67 @@
       <c r="E9" s="1">
         <v>5000</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="b">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4">
         <v>200000</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="K9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="4">
         <v>200000</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="4">
         <v>10000</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="O9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="4">
         <v>60000</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="S9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="4">
         <v>50000</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="5">
         <v>2000</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>30030001</v>
       </c>
     </row>
-    <row r="10" spans="2:25">
+    <row r="10" spans="2:26">
       <c r="B10" s="1">
         <v>30041</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>30030001</v>
@@ -1738,75 +1813,79 @@
       <c r="E10" s="1">
         <v>5000</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="b">
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="4">
         <v>200000</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="K10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="4">
         <v>200000</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="M10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="4">
         <v>10000</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="O10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4">
         <v>0</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="4">
         <v>60000</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="S10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="4">
         <v>50000</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="5">
         <v>500</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>30040001</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Z10" s="4">
         <v>30040101</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="4"/>
+    <row r="11" spans="7:7">
+      <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="4"/>
+    <row r="12" spans="7:7">
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="H2:U2"/>
-    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="I1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -148,7 +148,7 @@
     <t>塔防大本营</t>
   </si>
   <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,1,1,0,0,0,1,1,0,0,0,0,0,0,0</t>
+    <t>0,0,0,0,0,0,1,1,1,0,0,1,1,1,0,0,1,1,1,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>生命值B</t>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1471,7 +1471,7 @@
         <v>30001001</v>
       </c>
       <c r="E5" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>30005001</v>
       </c>
       <c r="E6" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1610,7 +1610,7 @@
         <v>5000</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>46</v>
@@ -1678,7 +1678,7 @@
         <v>5000</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>46</v>
@@ -1746,7 +1746,7 @@
         <v>5000</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>46</v>
@@ -1814,7 +1814,7 @@
         <v>5000</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>46</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1646,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="R7" s="4">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>42</v>
@@ -1658,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="V7" s="5">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="W7" s="4">
         <v>30010001</v>
@@ -1714,7 +1714,7 @@
         <v>41</v>
       </c>
       <c r="R8" s="4">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>42</v>
@@ -1726,7 +1726,7 @@
         <v>43</v>
       </c>
       <c r="V8" s="5">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="W8" s="4">
         <v>30020001</v>
@@ -1794,7 +1794,7 @@
         <v>43</v>
       </c>
       <c r="V9" s="5">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="W9" s="4">
         <v>30030001</v>
@@ -1862,7 +1862,7 @@
         <v>43</v>
       </c>
       <c r="V10" s="5">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="W10" s="4">
         <v>30040001</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -1221,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1498,7 +1498,7 @@
         <v>39</v>
       </c>
       <c r="N5" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>40</v>
@@ -1522,7 +1522,7 @@
         <v>43</v>
       </c>
       <c r="V5" s="5">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="W5" s="4">
         <v>30000001</v>
@@ -1566,7 +1566,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>40</v>
@@ -1590,7 +1590,7 @@
         <v>43</v>
       </c>
       <c r="V6" s="5">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="W6" s="4">
         <v>30000001</v>
@@ -1782,7 +1782,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="4">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>42</v>
@@ -1850,7 +1850,7 @@
         <v>41</v>
       </c>
       <c r="R10" s="4">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>42</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -175,19 +175,31 @@
     <t>兵防大本营</t>
   </si>
   <si>
-    <t>防御塔</t>
+    <t>TowerCircle</t>
   </si>
   <si>
     <t>0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
-    <t>召唤塔</t>
-  </si>
-  <si>
-    <t>增益塔</t>
-  </si>
-  <si>
-    <t>资源塔</t>
+    <t>TowerFlower4 资源</t>
+  </si>
+  <si>
+    <t>TowerFlower5 加成</t>
+  </si>
+  <si>
+    <t>TowerHexagon</t>
+  </si>
+  <si>
+    <t>TowerSnowflake</t>
+  </si>
+  <si>
+    <t>TowerSquare</t>
+  </si>
+  <si>
+    <t>TowerStar</t>
+  </si>
+  <si>
+    <t>TowerTriangle</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +235,12 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -583,18 +601,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -725,151 +734,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -885,6 +897,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,10 +909,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1219,246 +1234,246 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.0714285714286" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.8928571428571" style="1" customWidth="1"/>
     <col min="7" max="7" width="48.0714285714286" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="10" max="21" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="22" max="22" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="23" max="24" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="25" max="25" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="26" max="26" width="17.3571428571429" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="10" max="21" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="22" max="22" width="10.1160714285714" style="6" customWidth="1"/>
+    <col min="23" max="24" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="25" max="25" width="12.0446428571429" style="6" customWidth="1"/>
+    <col min="26" max="26" width="17.3571428571429" style="5" customWidth="1"/>
     <col min="27" max="27" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="15" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="15" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="2:23">
       <c r="B5" s="1">
@@ -1476,55 +1491,55 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="1" t="b">
+      <c r="H5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>500000</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>500000</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>10000</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <v>0</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="5">
         <v>0</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>100000</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="6">
         <v>10000</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="5">
         <v>30000001</v>
       </c>
     </row>
@@ -1544,55 +1559,55 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="1" t="b">
+      <c r="H6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>500000</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>500000</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>10000</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="5">
         <v>0</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>100000</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="6">
         <v>10000</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="5">
         <v>30000001</v>
       </c>
     </row>
@@ -1600,67 +1615,49 @@
       <c r="B7" s="1">
         <v>30011</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>30010001</v>
       </c>
-      <c r="E7" s="1">
-        <v>5000</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4">
-        <v>200000</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="4">
-        <v>200000</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="J7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="N7" s="4">
         <v>10000</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="5">
-        <v>20000</v>
-      </c>
-      <c r="W7" s="4">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="5">
         <v>30010001</v>
       </c>
     </row>
@@ -1668,67 +1665,31 @@
       <c r="B8" s="1">
         <v>30021</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>30020001</v>
       </c>
-      <c r="E8" s="1">
-        <v>5000</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>37</v>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J8" s="4">
-        <v>200000</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="4">
-        <v>200000</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="4">
-        <v>50000</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="5">
         <v>20000</v>
       </c>
-      <c r="W8" s="4">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="W8" s="5">
         <v>30020001</v>
       </c>
     </row>
@@ -1736,146 +1697,247 @@
       <c r="B9" s="1">
         <v>30031</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="1">
         <v>30030001</v>
       </c>
-      <c r="E9" s="1">
-        <v>5000</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="4">
-        <v>200000</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>38</v>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="L9" s="4">
-        <v>200000</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="4">
         <v>10000</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" s="4">
-        <v>50000</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="5">
-        <v>10000</v>
-      </c>
-      <c r="W9" s="4">
+      <c r="W9" s="5">
         <v>30030001</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:23">
       <c r="B10" s="1">
         <v>30041</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5000</v>
-      </c>
+        <v>30040001</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="4">
-        <v>200000</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="4">
-        <v>200000</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="H10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="J10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="N10" s="4">
         <v>10000</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="W10" s="5">
+        <v>30040001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="1">
+        <v>30051</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30050001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="I11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="4">
+        <v>20000</v>
+      </c>
+      <c r="W11" s="5">
+        <v>30050001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="1">
+        <v>30061</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30060001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="I12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="4">
+      <c r="L12" s="5">
         <v>50000</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="M12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V10" s="5">
+      <c r="N12" s="4">
+        <v>20000</v>
+      </c>
+      <c r="W12" s="5">
+        <v>30060001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="1">
+        <v>30071</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30070001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="5">
         <v>10000</v>
       </c>
-      <c r="W10" s="4">
-        <v>30040001</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>30040101</v>
+      <c r="K13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="4">
+        <v>20000</v>
+      </c>
+      <c r="W13" s="5">
+        <v>30070001</v>
       </c>
     </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="7:7">
-      <c r="G12" s="4"/>
+    <row r="14" spans="2:23">
+      <c r="B14" s="1">
+        <v>30081</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W14" s="5">
+        <v>30080001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>stone</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -49,6 +49,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>range_indicator</t>
+  </si>
+  <si>
     <t>radius</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>int#ref=TbResource</t>
   </si>
   <si>
+    <t>int#ref=TbResource?</t>
+  </si>
+  <si>
     <t>(array#sep=,),bool</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
   </si>
   <si>
     <t>模型</t>
+  </si>
+  <si>
+    <t>攻击范围指示器</t>
   </si>
   <si>
     <t>半径</t>
@@ -864,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,9 +919,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1234,30 +1240,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.0714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.8928571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.0714285714286" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="10" max="21" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="22" max="22" width="10.1160714285714" style="6" customWidth="1"/>
-    <col min="23" max="24" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="25" max="25" width="12.0446428571429" style="6" customWidth="1"/>
-    <col min="26" max="26" width="17.3571428571429" style="5" customWidth="1"/>
-    <col min="27" max="27" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.0714285714286" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.8928571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.0714285714286" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.7142857142857" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="11" max="22" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="23" max="23" width="10.1160714285714" style="6" customWidth="1"/>
+    <col min="24" max="25" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="26" max="26" width="12.0446428571429" style="6" customWidth="1"/>
+    <col min="27" max="27" width="17.3571428571429" style="5" customWidth="1"/>
+    <col min="28" max="28" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1271,19 +1277,21 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -1295,46 +1303,49 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="16" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="15"/>
       <c r="AA1" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="AB1" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="I2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -1346,117 +1357,123 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="15"/>
       <c r="AA2" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="AA3" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -1468,483 +1485,493 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="15"/>
       <c r="X4" s="9"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="15"/>
       <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:24">
       <c r="B5" s="1">
         <v>30001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>30001001</v>
       </c>
       <c r="E5" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="F5" s="1">
         <v>15000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="b">
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="5">
         <v>500000</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="L5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5">
         <v>500000</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="N5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="5">
         <v>10000</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="P5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="5">
         <v>0</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="R5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="5">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="5">
+      <c r="T5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="5">
         <v>100000</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="6">
         <v>10000</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>30000001</v>
       </c>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:24">
       <c r="B6" s="1">
         <v>30005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1">
         <v>30005001</v>
       </c>
       <c r="E6" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="F6" s="1">
         <v>15000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="b">
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5">
         <v>500000</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="5">
         <v>500000</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="N6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5">
         <v>10000</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="P6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="R6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="5">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="T6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="5">
         <v>100000</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="6">
         <v>10000</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <v>30000001</v>
       </c>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:24">
       <c r="B7" s="1">
         <v>30011</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
         <v>30010001</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="O7" s="4">
         <v>10000</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="5">
-        <v>50000</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <v>30010001</v>
       </c>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:24">
       <c r="B8" s="1">
         <v>30021</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>30020001</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>20000</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <v>30020001</v>
       </c>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:24">
       <c r="B9" s="1">
         <v>30031</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1">
         <v>30030001</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
+        <v>70010002</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="5">
-        <v>50000</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>10000</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <v>30030001</v>
       </c>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:24">
       <c r="B10" s="1">
         <v>30041</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1">
         <v>30040001</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="O10" s="4">
         <v>10000</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="5">
-        <v>50000</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <v>30040001</v>
       </c>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:24">
       <c r="B11" s="1">
         <v>30051</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
         <v>30050001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="5">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="5">
-        <v>50000</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>20000</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <v>30050001</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:24">
       <c r="B12" s="1">
         <v>30061</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1">
         <v>30060001</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
+        <v>70010003</v>
+      </c>
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="5">
-        <v>10000</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="5">
-        <v>50000</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>20000</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>30060001</v>
       </c>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:24">
       <c r="B13" s="1">
         <v>30071</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1">
         <v>30070001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E13" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="5">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="5">
-        <v>50000</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>20000</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <v>30070001</v>
       </c>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:24">
       <c r="B14" s="1">
         <v>30081</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1">
         <v>30080001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="E14" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="5">
-        <v>50000</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="5">
-        <v>100000</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>5000</v>
       </c>
-      <c r="W14" s="5">
+      <c r="X14" s="5">
         <v>30080001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="J1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="J2:W2"/>
+    <mergeCell ref="X2:Z2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -1242,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1673,7 +1673,7 @@
         <v>46</v>
       </c>
       <c r="O7" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="X7" s="5">
         <v>30010001</v>
@@ -1702,7 +1702,7 @@
         <v>46</v>
       </c>
       <c r="K8" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="X8" s="5">
         <v>30020001</v>
@@ -1784,7 +1784,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="4">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="X10" s="5">
         <v>30040001</v>
@@ -1828,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="O11" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="X11" s="5">
         <v>30050001</v>
@@ -1872,7 +1872,7 @@
         <v>46</v>
       </c>
       <c r="O12" s="4">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="X12" s="5">
         <v>30060001</v>
@@ -1916,7 +1916,7 @@
         <v>46</v>
       </c>
       <c r="O13" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="X13" s="5">
         <v>30070001</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>stone</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int#ref=TbResource</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>模型</t>
   </si>
   <si>
@@ -187,28 +196,52 @@
     <t>TowerCircle</t>
   </si>
   <si>
+    <t>范围伤害塔</t>
+  </si>
+  <si>
     <t>0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>TowerFlower4 资源</t>
   </si>
   <si>
+    <t>产出资源塔</t>
+  </si>
+  <si>
     <t>TowerFlower5 加成</t>
   </si>
   <si>
+    <t>为周围提供加持塔</t>
+  </si>
+  <si>
     <t>TowerHexagon</t>
   </si>
   <si>
+    <t>均衡的单体塔</t>
+  </si>
+  <si>
     <t>TowerSnowflake</t>
   </si>
   <si>
+    <t>单体减速塔</t>
+  </si>
+  <si>
     <t>TowerSquare</t>
   </si>
   <si>
+    <t>同时对4方向造成直线伤害塔</t>
+  </si>
+  <si>
     <t>TowerStar</t>
   </si>
   <si>
+    <t>炮弹落地伤害塔</t>
+  </si>
+  <si>
     <t>TowerTriangle</t>
+  </si>
+  <si>
+    <t>狙击型单体塔</t>
   </si>
 </sst>
 </file>
@@ -1240,30 +1273,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.51785714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.0714285714286" style="1" customWidth="1"/>
-    <col min="4" max="5" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.8928571428571" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.0714285714286" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.7142857142857" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="11" max="22" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10.1160714285714" style="6" customWidth="1"/>
-    <col min="24" max="25" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="26" max="26" width="12.0446428571429" style="6" customWidth="1"/>
-    <col min="27" max="27" width="17.3571428571429" style="5" customWidth="1"/>
-    <col min="28" max="28" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.0714285714286" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.0714285714286" style="1" customWidth="1"/>
+    <col min="7" max="8" width="18.8928571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.0714285714286" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.7142857142857" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="12" max="23" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="24" max="24" width="10.1160714285714" style="6" customWidth="1"/>
+    <col min="25" max="26" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.0446428571429" style="6" customWidth="1"/>
+    <col min="28" max="28" width="17.3571428571429" style="5" customWidth="1"/>
+    <col min="29" max="29" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1280,19 +1313,21 @@
       <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
@@ -1304,49 +1339,52 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="16" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="15"/>
       <c r="AB1" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="AC1" s="16" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="J2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1358,123 +1396,129 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="15"/>
       <c r="AB2" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="J3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="L3" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1486,492 +1530,517 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="15"/>
       <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:25">
       <c r="B5" s="1">
         <v>30001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1">
         <v>30001001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>70010001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>15000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="b">
+      <c r="I5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5">
         <v>500000</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="5">
-        <v>500000</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="O5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="5">
         <v>10000</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="5">
         <v>0</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="S5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="U5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="5">
         <v>100000</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="6">
         <v>10000</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <v>30000001</v>
       </c>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:25">
       <c r="B6" s="1">
         <v>30005</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30005001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="5">
+        <v>500000</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1">
-        <v>30005001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>70010001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="5">
-        <v>500000</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="5">
-        <v>500000</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="6">
         <v>10000</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="5">
-        <v>100000</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="6">
-        <v>10000</v>
-      </c>
-      <c r="X6" s="5">
+      <c r="Y6" s="5">
         <v>30000001</v>
       </c>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:25">
       <c r="B7" s="1">
         <v>30011</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1">
+      <c r="N7" s="5">
+        <v>50000</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5000</v>
+      </c>
+      <c r="Y7" s="5">
         <v>30010001</v>
       </c>
-      <c r="E7" s="1">
-        <v>70010001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="5">
-        <v>10000</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="5">
-        <v>50000</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="4">
-        <v>5000</v>
-      </c>
-      <c r="X7" s="5">
-        <v>30010001</v>
-      </c>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:25">
       <c r="B8" s="1">
         <v>30021</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
+        <v>54</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1">
         <v>30020001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>10000</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y8" s="5">
         <v>30020001</v>
       </c>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:25">
       <c r="B9" s="1">
         <v>30031</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1">
+        <v>56</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1">
         <v>30030001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>70010002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="5">
-        <v>50000</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>10000</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Y9" s="5">
         <v>30030001</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:25">
       <c r="B10" s="1">
         <v>30041</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1">
         <v>30040001</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>70010001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="5">
-        <v>50000</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>15000</v>
       </c>
-      <c r="X10" s="5">
+      <c r="Y10" s="5">
         <v>30040001</v>
       </c>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:25">
       <c r="B11" s="1">
         <v>30051</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30050001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>70010001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1">
+      <c r="J11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Y11" s="5">
         <v>30050001</v>
       </c>
-      <c r="E11" s="1">
-        <v>70010001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="5">
-        <v>10000</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="5">
-        <v>50000</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="X11" s="5">
-        <v>30050001</v>
-      </c>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:25">
       <c r="B12" s="1">
         <v>30061</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1">
+        <v>62</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1">
         <v>30060001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>70010003</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="5">
+        <v>50000</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="5">
-        <v>10000</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="5">
-        <v>50000</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>5000</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <v>30060001</v>
       </c>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:25">
       <c r="B13" s="1">
         <v>30071</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1">
+        <v>64</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1">
         <v>30070001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>70010001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="P13" s="4">
         <v>10000</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="5">
-        <v>50000</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <v>30070001</v>
       </c>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:25">
       <c r="B14" s="1">
         <v>30081</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1">
+        <v>66</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1">
         <v>30080001</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>70010001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="5">
-        <v>50000</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="5">
-        <v>100000</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>5000</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Y14" s="5">
         <v>30080001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="J2:W2"/>
-    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="K1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="K2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1929,7 +1929,7 @@
         <v>48</v>
       </c>
       <c r="N12" s="5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>49</v>
@@ -2023,7 +2023,7 @@
         <v>48</v>
       </c>
       <c r="N14" s="5">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>49</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1275,8 +1275,8 @@
   <sheetPr/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1567,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="L5" s="5">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>44</v>
@@ -1638,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="L6" s="5">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>44</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -1275,8 +1275,8 @@
   <sheetPr/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1538,7 +1538,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="2:25">
+    <row r="5" spans="2:26">
       <c r="B5" s="1">
         <v>30001</v>
       </c>
@@ -1608,8 +1608,11 @@
       <c r="Y5" s="5">
         <v>30000001</v>
       </c>
+      <c r="Z5" s="5">
+        <v>30001001</v>
+      </c>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:26">
       <c r="B6" s="1">
         <v>30005</v>
       </c>
@@ -1678,6 +1681,9 @@
       </c>
       <c r="Y6" s="5">
         <v>30000001</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>30001001</v>
       </c>
     </row>
     <row r="7" spans="2:25">

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -1275,8 +1275,8 @@
   <sheetPr/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1538,7 +1538,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:27">
       <c r="B5" s="1">
         <v>30001</v>
       </c>
@@ -1606,13 +1606,16 @@
         <v>10000</v>
       </c>
       <c r="Y5" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z5" s="5">
         <v>30000001</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="6">
         <v>30001001</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:27">
       <c r="B6" s="1">
         <v>30005</v>
       </c>
@@ -1680,13 +1683,16 @@
         <v>10000</v>
       </c>
       <c r="Y6" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z6" s="5">
         <v>30000001</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AA6" s="6">
         <v>30001001</v>
       </c>
     </row>
-    <row r="7" spans="2:25">
+    <row r="7" spans="2:26">
       <c r="B7" s="1">
         <v>30011</v>
       </c>
@@ -1730,10 +1736,13 @@
         <v>5000</v>
       </c>
       <c r="Y7" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z7" s="5">
         <v>30010001</v>
       </c>
     </row>
-    <row r="8" spans="2:25">
+    <row r="8" spans="2:26">
       <c r="B8" s="1">
         <v>30021</v>
       </c>
@@ -1762,10 +1771,13 @@
         <v>10000</v>
       </c>
       <c r="Y8" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z8" s="5">
         <v>30020001</v>
       </c>
     </row>
-    <row r="9" spans="2:25">
+    <row r="9" spans="2:26">
       <c r="B9" s="1">
         <v>30031</v>
       </c>
@@ -1803,10 +1815,13 @@
         <v>10000</v>
       </c>
       <c r="Y9" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z9" s="5">
         <v>30030001</v>
       </c>
     </row>
-    <row r="10" spans="2:25">
+    <row r="10" spans="2:26">
       <c r="B10" s="1">
         <v>30041</v>
       </c>
@@ -1850,10 +1865,13 @@
         <v>15000</v>
       </c>
       <c r="Y10" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z10" s="5">
         <v>30040001</v>
       </c>
     </row>
-    <row r="11" spans="2:25">
+    <row r="11" spans="2:26">
       <c r="B11" s="1">
         <v>30051</v>
       </c>
@@ -1897,10 +1915,13 @@
         <v>10000</v>
       </c>
       <c r="Y11" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z11" s="5">
         <v>30050001</v>
       </c>
     </row>
-    <row r="12" spans="2:25">
+    <row r="12" spans="2:26">
       <c r="B12" s="1">
         <v>30061</v>
       </c>
@@ -1944,10 +1965,13 @@
         <v>5000</v>
       </c>
       <c r="Y12" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z12" s="5">
         <v>30060001</v>
       </c>
     </row>
-    <row r="13" spans="2:25">
+    <row r="13" spans="2:26">
       <c r="B13" s="1">
         <v>30071</v>
       </c>
@@ -1991,10 +2015,13 @@
         <v>10000</v>
       </c>
       <c r="Y13" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z13" s="5">
         <v>30070001</v>
       </c>
     </row>
-    <row r="14" spans="2:25">
+    <row r="14" spans="2:26">
       <c r="B14" s="1">
         <v>30081</v>
       </c>
@@ -2038,6 +2065,9 @@
         <v>5000</v>
       </c>
       <c r="Y14" s="5">
+        <v>30009001</v>
+      </c>
+      <c r="Z14" s="5">
         <v>30080001</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Building.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -67,6 +67,9 @@
     <t>can_be_attack</t>
   </si>
   <si>
+    <t>price_placement</t>
+  </si>
+  <si>
     <t>props</t>
   </si>
   <si>
@@ -140,6 +143,12 @@
   </si>
   <si>
     <t>是否受攻击</t>
+  </si>
+  <si>
+    <t>放置消耗类型</t>
+  </si>
+  <si>
+    <t>放置消耗值</t>
   </si>
   <si>
     <t>属性类型</t>
@@ -912,18 +921,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -948,10 +957,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,10 +1282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1287,16 +1296,18 @@
     <col min="7" max="8" width="18.8928571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="48.0714285714286" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.7142857142857" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="12" max="23" width="10.1160714285714" style="5" customWidth="1"/>
-    <col min="24" max="24" width="10.1160714285714" style="6" customWidth="1"/>
-    <col min="25" max="26" width="12.0446428571429" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.0446428571429" style="6" customWidth="1"/>
-    <col min="28" max="28" width="17.3571428571429" style="5" customWidth="1"/>
-    <col min="29" max="29" width="25.0714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.6875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="14" max="25" width="10.1160714285714" style="6" customWidth="1"/>
+    <col min="26" max="26" width="10.1160714285714" style="5" customWidth="1"/>
+    <col min="27" max="28" width="12.0446428571429" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.0446428571429" style="5" customWidth="1"/>
+    <col min="30" max="30" width="17.3571428571429" style="6" customWidth="1"/>
+    <col min="31" max="31" width="25.0714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1325,11 +1336,13 @@
       <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
@@ -1340,53 +1353,57 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="16" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="AE1" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="K2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1397,130 +1414,138 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="16" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="AE2" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>34</v>
+      <c r="L3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="16" t="s">
         <v>37</v>
       </c>
+      <c r="Z3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="AC3" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:31">
       <c r="A4" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -1531,19 +1556,21 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="X4" s="15"/>
+      <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="15"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:29">
       <c r="B5" s="1">
         <v>30001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>30001001</v>
@@ -1557,70 +1584,70 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>42</v>
+      <c r="I5" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="J5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="M5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="6">
         <v>500000</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="O5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="6">
         <v>500000</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="6">
         <v>10000</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="S5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="6">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="5">
+      <c r="U5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="6">
         <v>0</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="5">
+      <c r="W5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="6">
         <v>100000</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="5">
         <v>10000</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AA5" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AB5" s="6">
         <v>30000001</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AC5" s="5">
         <v>30001001</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:29">
       <c r="B6" s="1">
         <v>30005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>30005001</v>
@@ -1634,73 +1661,73 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>42</v>
+      <c r="I6" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="J6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="M6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="6">
         <v>500000</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="O6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="6">
         <v>500000</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="6">
         <v>10000</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="S6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="6">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="U6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="6">
         <v>0</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="W6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="6">
         <v>100000</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="5">
         <v>10000</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AA6" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AB6" s="6">
         <v>30000001</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AC6" s="5">
         <v>30001001</v>
       </c>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:28">
       <c r="B7" s="1">
         <v>30011</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1">
         <v>30010001</v>
@@ -1711,46 +1738,46 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>53</v>
+      <c r="I7" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="M7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="6">
         <v>10000</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="O7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="6">
         <v>50000</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="4">
         <v>5000</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="AA7" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AB7" s="6">
         <v>30010001</v>
       </c>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:28">
       <c r="B8" s="1">
         <v>30021</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1">
         <v>30020001</v>
@@ -1758,34 +1785,34 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>53</v>
+      <c r="I8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="M8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="4">
         <v>10000</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="AA8" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AB8" s="6">
         <v>30020001</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:28">
       <c r="B9" s="1">
         <v>30031</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1">
         <v>30030001</v>
@@ -1796,40 +1823,40 @@
       <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>53</v>
+      <c r="I9" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="M9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="6">
         <v>50000</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="O9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="4">
         <v>10000</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="AA9" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AB9" s="6">
         <v>30030001</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:28">
       <c r="B10" s="1">
         <v>30041</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1">
         <v>30040001</v>
@@ -1840,46 +1867,46 @@
       <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>53</v>
+      <c r="I10" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="M10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="6">
         <v>10000</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="O10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="6">
         <v>50000</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="4">
         <v>15000</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="AA10" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AB10" s="6">
         <v>30040001</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:28">
       <c r="B11" s="1">
         <v>30051</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
         <v>30050001</v>
@@ -1890,46 +1917,46 @@
       <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>53</v>
+      <c r="I11" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="M11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="6">
         <v>10000</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="O11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="6">
         <v>50000</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="4">
         <v>10000</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="AA11" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AB11" s="6">
         <v>30050001</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:28">
       <c r="B12" s="1">
         <v>30061</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1">
         <v>30060001</v>
@@ -1940,46 +1967,46 @@
       <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>53</v>
+      <c r="I12" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="M12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="6">
         <v>10000</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="O12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="6">
         <v>100000</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="4">
         <v>5000</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AA12" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AB12" s="6">
         <v>30060001</v>
       </c>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:28">
       <c r="B13" s="1">
         <v>30071</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1">
         <v>30070001</v>
@@ -1990,46 +2017,46 @@
       <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>53</v>
+      <c r="I13" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="M13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="6">
         <v>10000</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="O13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="6">
         <v>50000</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="4">
         <v>10000</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="AA13" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AB13" s="6">
         <v>30070001</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:28">
       <c r="B14" s="1">
         <v>30081</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1">
         <v>30080001</v>
@@ -2040,43 +2067,45 @@
       <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>53</v>
+      <c r="I14" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="M14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="6">
         <v>50000</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="O14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="6">
         <v>200000</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="4">
         <v>5000</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="AA14" s="6">
         <v>30009001</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AB14" s="6">
         <v>30080001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="K2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
+  <mergeCells count="6">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
